--- a/biology/Zoologie/Grenouille_ibérique/Grenouille_ibérique.xlsx
+++ b/biology/Zoologie/Grenouille_ibérique/Grenouille_ibérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grenouille_ib%C3%A9rique</t>
+          <t>Grenouille_ibérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rana iberica
-Rana iberica, la grenouille ibérique, est une espèce d'amphibiens de la famille des Ranidae[1].
+Rana iberica, la grenouille ibérique, est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grenouille_ib%C3%A9rique</t>
+          <t>Grenouille_ibérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique de la péninsule Ibérique. Elle se rencontre du niveau de la mer jusqu'à 2 425 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique de la péninsule Ibérique. Elle se rencontre du niveau de la mer jusqu'à 2 425 m d'altitude :
 dans le nord du Portugal ;
 dans le Nord-Ouest et le centre de l'Espagne.</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grenouille_ib%C3%A9rique</t>
+          <t>Grenouille_ibérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, la péninsule Ibérique.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grenouille_ib%C3%A9rique</t>
+          <t>Grenouille_ibérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1879 : Étude sur les grenouilles rousses, Ranae temporariae et description d'espèces nouvelles ou méconnues. Bulletin de la Société Zoologique de France, vol. 4, p. 158-193 (texte intégral).</t>
         </is>
